--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H2">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I2">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J2">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>0.4187905524032222</v>
+        <v>1.519247512830889</v>
       </c>
       <c r="R2">
-        <v>3.769114971629</v>
+        <v>13.673227615478</v>
       </c>
       <c r="S2">
-        <v>0.01735967789288679</v>
+        <v>0.04875602523315902</v>
       </c>
       <c r="T2">
-        <v>0.01735967789288678</v>
+        <v>0.04875602523315901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H3">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I3">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J3">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
-        <v>1.078349533358222</v>
+        <v>1.394078602385778</v>
       </c>
       <c r="R3">
-        <v>9.705145800224003</v>
+        <v>12.546707421472</v>
       </c>
       <c r="S3">
-        <v>0.04469967253945981</v>
+        <v>0.04473907703707653</v>
       </c>
       <c r="T3">
-        <v>0.04469967253945981</v>
+        <v>0.04473907703707652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7912223333333334</v>
+        <v>1.022883666666667</v>
       </c>
       <c r="H4">
-        <v>2.373667</v>
+        <v>3.068651</v>
       </c>
       <c r="I4">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="J4">
-        <v>0.1279721785899035</v>
+        <v>0.1594660351460709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
-        <v>1.590102643890222</v>
+        <v>2.055667483381778</v>
       </c>
       <c r="R4">
-        <v>14.310923795012</v>
+        <v>18.501007350436</v>
       </c>
       <c r="S4">
-        <v>0.06591282815755692</v>
+        <v>0.0659709328758354</v>
       </c>
       <c r="T4">
-        <v>0.06591282815755692</v>
+        <v>0.06597093287583539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.085674</v>
       </c>
       <c r="I5">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J5">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N5">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q5">
-        <v>0.5444112923153334</v>
+        <v>1.527675369374667</v>
       </c>
       <c r="R5">
-        <v>4.899701630838</v>
+        <v>13.749078324372</v>
       </c>
       <c r="S5">
-        <v>0.0225669003792257</v>
+        <v>0.04902649385847486</v>
       </c>
       <c r="T5">
-        <v>0.0225669003792257</v>
+        <v>0.04902649385847486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.085674</v>
       </c>
       <c r="I6">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J6">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q6">
         <v>1.401812098325334</v>
@@ -818,10 +818,10 @@
         <v>12.616308884928</v>
       </c>
       <c r="S6">
-        <v>0.05810782109012137</v>
+        <v>0.044987262089206</v>
       </c>
       <c r="T6">
-        <v>0.05810782109012137</v>
+        <v>0.044987262089206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.085674</v>
       </c>
       <c r="I7">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="J7">
-        <v>0.1663588128403108</v>
+        <v>0.1603506552336246</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q7">
         <v>2.067071070029333</v>
@@ -880,10 +880,10 @@
         <v>18.603639630264</v>
       </c>
       <c r="S7">
-        <v>0.08568409137096369</v>
+        <v>0.06633689928594373</v>
       </c>
       <c r="T7">
-        <v>0.08568409137096369</v>
+        <v>0.06633689928594373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.088964</v>
       </c>
       <c r="I8">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J8">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N8">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q8">
-        <v>2.309310642118667</v>
+        <v>6.480168648221335</v>
       </c>
       <c r="R8">
-        <v>20.783795779068</v>
+        <v>58.32151783399201</v>
       </c>
       <c r="S8">
-        <v>0.09572538986790943</v>
+        <v>0.2079629971149896</v>
       </c>
       <c r="T8">
-        <v>0.09572538986790943</v>
+        <v>0.2079629971149896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.088964</v>
       </c>
       <c r="I9">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J9">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q9">
         <v>5.946275623978669</v>
@@ -1004,10 +1004,10 @@
         <v>53.51648061580801</v>
       </c>
       <c r="S9">
-        <v>0.2464846183903547</v>
+        <v>0.1908291847888604</v>
       </c>
       <c r="T9">
-        <v>0.2464846183903547</v>
+        <v>0.1908291847888604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.088964</v>
       </c>
       <c r="I10">
-        <v>0.7056690085697858</v>
+        <v>0.6801833096203046</v>
       </c>
       <c r="J10">
-        <v>0.7056690085697859</v>
+        <v>0.6801833096203045</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.029036</v>
       </c>
       <c r="O10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q10">
         <v>8.768203906522666</v>
@@ -1066,10 +1066,10 @@
         <v>78.913835158704</v>
       </c>
       <c r="S10">
-        <v>0.3634590003115217</v>
+        <v>0.2813911277164546</v>
       </c>
       <c r="T10">
-        <v>0.3634590003115217</v>
+        <v>0.2813911277164545</v>
       </c>
     </row>
   </sheetData>
